--- a/finalprediction.xlsx
+++ b/finalprediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>bill</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>due</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>genre</t>
+          <t>delay</t>
         </is>
       </c>
     </row>
@@ -466,11 +466,11 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HipHop</t>
+          <t>6 Days</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HipHop</t>
+          <t>5 Days</t>
         </is>
       </c>
     </row>
@@ -504,11 +504,11 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HipHop</t>
+          <t>7 Days</t>
         </is>
       </c>
     </row>
@@ -523,11 +523,11 @@
         <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>8 Days</t>
         </is>
       </c>
     </row>
@@ -542,11 +542,11 @@
         <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>4 Days</t>
         </is>
       </c>
     </row>
@@ -561,11 +561,11 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>0 Days</t>
         </is>
       </c>
     </row>
@@ -580,11 +580,11 @@
         <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Classical</t>
+          <t>6 Days</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Classical</t>
+          <t>2 Days</t>
         </is>
       </c>
     </row>
@@ -618,11 +618,11 @@
         <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Classical</t>
+          <t>5 Days</t>
         </is>
       </c>
     </row>
@@ -637,11 +637,11 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dance</t>
+          <t>7 Days</t>
         </is>
       </c>
     </row>
@@ -656,11 +656,11 @@
         <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dance</t>
+          <t>2 Days</t>
         </is>
       </c>
     </row>
@@ -675,11 +675,11 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dance</t>
+          <t>5 Days</t>
         </is>
       </c>
     </row>
@@ -694,11 +694,11 @@
         <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Acoustic</t>
+          <t>6 Days</t>
         </is>
       </c>
     </row>
@@ -713,11 +713,11 @@
         <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Acoustic</t>
+          <t>2 Days</t>
         </is>
       </c>
     </row>
@@ -732,11 +732,11 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Acoustic</t>
+          <t>4 Days</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
         <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Classical</t>
+          <t>0 Days</t>
         </is>
       </c>
     </row>
@@ -770,11 +770,11 @@
         <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Classical</t>
+          <t>5 days</t>
         </is>
       </c>
     </row>
@@ -789,11 +789,11 @@
         <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Classical</t>
+          <t>6 days</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HipHop</t>
+          <t>4 Days</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dance</t>
+          <t>4 Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6 days</t>
         </is>
       </c>
     </row>
